--- a/2018.10.8-2018.10.14.xlsx
+++ b/2018.10.8-2018.10.14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>时间段</t>
   </si>
@@ -192,6 +192,9 @@
     <t>08：00-08：30</t>
   </si>
   <si>
+    <t>去实验室</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t>更新项目代码，看老师新加的，看项目说明文档;学习Hadoop生态在网上看了一些关于现在大数据框架的对比说明</t>
   </si>
   <si>
+    <t>更新项目代码，主要看了自己的任务安排以及具体的代码细节</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>10：30-11：00</t>
   </si>
   <si>
+    <t>开会，主要是对于TODO以及整体项目架构进行了说明理解</t>
+  </si>
+  <si>
     <t>11：00-11：30</t>
   </si>
   <si>
@@ -231,12 +240,18 @@
     <t>回宿舍</t>
   </si>
   <si>
+    <t>吃午饭</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
     <t>午休</t>
   </si>
   <si>
+    <t>跟他们一起去拿快递</t>
+  </si>
+  <si>
     <t>13：00-14：00</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>对照说明文档继续将剩下的GTL各个接口阅读完</t>
   </si>
   <si>
+    <t>学习java泛型编程</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>16：30-17：00</t>
   </si>
   <si>
+    <t>阅读分页存储机制部分代码并写文档</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t>晚饭</t>
   </si>
   <si>
+    <t>阅读HDFS关于namenode部分</t>
+  </si>
+  <si>
     <t>晚上</t>
   </si>
   <si>
@@ -291,6 +315,9 @@
     <t>看了会儿小说，然后看视频</t>
   </si>
   <si>
+    <t>跑步</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -303,6 +330,9 @@
     <t>19：30-20：00</t>
   </si>
   <si>
+    <t>帮师弟看代码</t>
+  </si>
+  <si>
     <t>20：00-20：30</t>
   </si>
   <si>
@@ -312,6 +342,9 @@
     <t>20：30-21：00</t>
   </si>
   <si>
+    <t>比赛的事情</t>
+  </si>
+  <si>
     <t>21：00-21：30</t>
   </si>
   <si>
@@ -321,6 +354,9 @@
     <t>写leetcode</t>
   </si>
   <si>
+    <t>回宿舍洗澡</t>
+  </si>
+  <si>
     <t>22：00-22：30</t>
   </si>
   <si>
@@ -328,6 +364,9 @@
   </si>
   <si>
     <t>骑车回家</t>
+  </si>
+  <si>
+    <t>玩游戏</t>
   </si>
   <si>
     <t>23：00-23：30</t>
@@ -354,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -390,25 +429,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,6 +449,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,6 +485,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -452,24 +500,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,21 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -505,16 +545,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,187 +626,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,17 +967,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,16 +995,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,104 +1055,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,59 +1153,59 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,9 +1218,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,25 +1236,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1560,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1598,15 +1670,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1618,7 +1690,7 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1632,25 +1704,23 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1662,800 +1732,824 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="23"/>
+      <c r="J17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="24"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="24"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="24"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:16">
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="24"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="24"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="24"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="24"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="24"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="33"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="24"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="33"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="24"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="24"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="24"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="24"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="24"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="33"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="24"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="33"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="24"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="33"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="24"/>
+      <c r="A35" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="33"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="24"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="33"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="24"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="33"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="25">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2468,6 +2562,16 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.8-2018.10.14.xlsx
+++ b/2018.10.8-2018.10.14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>时间段</t>
   </si>
@@ -210,6 +210,9 @@
     <t>更新项目代码，主要看了自己的任务安排以及具体的代码细节</t>
   </si>
   <si>
+    <t>复习了一点数据库的知识，阅读HDFS源码以及书籍，感觉还是得用一下相关API再来看书会效果好些</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
     <t>11：00-11：30</t>
   </si>
   <si>
+    <t>下载Hadoop2.6源码</t>
+  </si>
+  <si>
     <t>11：30-12：00</t>
   </si>
   <si>
@@ -261,6 +267,9 @@
     <t>来实验室</t>
   </si>
   <si>
+    <t>给王宝宝买跳绳</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -273,6 +282,9 @@
     <t>学习java泛型编程</t>
   </si>
   <si>
+    <t>和师弟讨论gvx的问题，不清楚具体的实现</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
@@ -294,6 +306,9 @@
     <t>阅读分页存储机制部分代码并写文档</t>
   </si>
   <si>
+    <t>阅读DiskStorageManager代码，向老师询问细节</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -318,6 +333,9 @@
     <t>跑步</t>
   </si>
   <si>
+    <t>组合数学题</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -343,6 +361,9 @@
   </si>
   <si>
     <t>比赛的事情</t>
+  </si>
+  <si>
+    <t>看电视</t>
   </si>
   <si>
     <t>21：00-21：30</t>
@@ -394,8 +415,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -430,18 +451,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +480,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -468,10 +504,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,46 +528,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,15 +549,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,187 +653,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,21 +997,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1027,16 +1033,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,157 +1061,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,50 +1257,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1633,7 +1663,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1670,15 +1700,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1693,7 +1723,7 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1704,13 +1734,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1721,9 +1751,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1732,13 +1760,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1749,18 +1777,20 @@
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1773,18 +1803,20 @@
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1794,762 +1826,778 @@
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:16">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="32"/>
+      <c r="J17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="33"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="33"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="33"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="33"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="36"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="33"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="36"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="33"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="36"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="33"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="C29" s="11"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="33"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="27"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="33"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="36"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="33"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="36"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="33"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="36"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="36"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="33"/>
+      <c r="A35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="36"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="33"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="36"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="33"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="36"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="34"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2572,6 +2620,13 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.8-2018.10.14.xlsx
+++ b/2018.10.8-2018.10.14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>时间段</t>
   </si>
@@ -186,6 +186,9 @@
     <t>起床去实验室</t>
   </si>
   <si>
+    <t>去上课</t>
+  </si>
+  <si>
     <t>骑车去实验室</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
     <t>去实验室</t>
   </si>
   <si>
+    <t>组合数学课</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
@@ -249,6 +255,9 @@
     <t>吃午饭</t>
   </si>
   <si>
+    <t>看视频</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
@@ -270,6 +279,9 @@
     <t>给王宝宝买跳绳</t>
   </si>
   <si>
+    <t>调试gtl以及hadoop代码</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -312,12 +324,12 @@
     <t>17：00-17：30</t>
   </si>
   <si>
+    <t>晚饭</t>
+  </si>
+  <si>
     <t>17：30-18：00</t>
   </si>
   <si>
-    <t>晚饭</t>
-  </si>
-  <si>
     <t>阅读HDFS关于namenode部分</t>
   </si>
   <si>
@@ -336,6 +348,9 @@
     <t>组合数学题</t>
   </si>
   <si>
+    <t>学习Hadoop视频，主要看了前三章，看到分布式文件系统HDFS</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -369,6 +384,9 @@
     <t>21：00-21：30</t>
   </si>
   <si>
+    <t>磨蹭</t>
+  </si>
+  <si>
     <t>21：30-22：00</t>
   </si>
   <si>
@@ -381,19 +399,19 @@
     <t>22：00-22：30</t>
   </si>
   <si>
+    <t>骑车回家</t>
+  </si>
+  <si>
     <t>22：30-23：00</t>
   </si>
   <si>
-    <t>骑车回家</t>
-  </si>
-  <si>
     <t>玩游戏</t>
   </si>
   <si>
+    <t>洗漱</t>
+  </si>
+  <si>
     <t>23：00-23：30</t>
-  </si>
-  <si>
-    <t>洗漱</t>
   </si>
   <si>
     <t>23：30-07：00</t>
@@ -414,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -450,21 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -472,15 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -490,6 +486,45 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,45 +540,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +563,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,15 +578,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,13 +671,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +797,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -695,19 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,128 +855,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -903,28 +921,21 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -945,6 +956,26 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -997,6 +1028,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1031,202 +1107,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,10 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,43 +1330,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1663,7 +1700,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1700,15 +1737,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1723,10 +1760,10 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1734,13 +1771,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1751,780 +1788,794 @@
         <v>14</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="35"/>
+      <c r="J17" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="36"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="36"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="36"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="36"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="36"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="36"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="36"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="36"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="36"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="36"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="23"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="36"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="26"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="36"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E30" s="27"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="36"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="36"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="23"/>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="36"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>84</v>
+      <c r="E33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="36"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="36"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2534,13 +2585,13 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="36"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="17"/>
@@ -2552,13 +2603,13 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="36"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="17"/>
@@ -2570,13 +2621,13 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="36"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="17"/>
@@ -2588,16 +2639,16 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="37"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="40">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2627,6 +2678,14 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.8-2018.10.14.xlsx
+++ b/2018.10.8-2018.10.14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>时间段</t>
   </si>
@@ -189,24 +189,24 @@
     <t>去上课</t>
   </si>
   <si>
+    <t>08：00-08：30</t>
+  </si>
+  <si>
+    <t>去实验室</t>
+  </si>
+  <si>
+    <t>组合数学课</t>
+  </si>
+  <si>
+    <t>08：30-09：00</t>
+  </si>
+  <si>
+    <t>吃早饭</t>
+  </si>
+  <si>
     <t>骑车去实验室</t>
   </si>
   <si>
-    <t>08：00-08：30</t>
-  </si>
-  <si>
-    <t>去实验室</t>
-  </si>
-  <si>
-    <t>组合数学课</t>
-  </si>
-  <si>
-    <t>08：30-09：00</t>
-  </si>
-  <si>
-    <t>吃早饭</t>
-  </si>
-  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
@@ -219,6 +219,9 @@
     <t>复习了一点数据库的知识，阅读HDFS源码以及书籍，感觉还是得用一下相关API再来看书会效果好些</t>
   </si>
   <si>
+    <t>调试代码 重新安装jdk并编译成功</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -258,12 +261,12 @@
     <t>看视频</t>
   </si>
   <si>
+    <t>午休</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
-    <t>午休</t>
-  </si>
-  <si>
     <t>跟他们一起去拿快递</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
     <t>调试gtl以及hadoop代码</t>
   </si>
   <si>
+    <t>年级大会</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
     <t>阅读DiskStorageManager代码，向老师询问细节</t>
   </si>
   <si>
+    <t>看hadoop权威指南</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
     <t>学习Hadoop视频，主要看了前三章，看到分布式文件系统HDFS</t>
   </si>
   <si>
+    <t>看电视</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -376,9 +388,6 @@
   </si>
   <si>
     <t>比赛的事情</t>
-  </si>
-  <si>
-    <t>看电视</t>
   </si>
   <si>
     <t>21：00-21：30</t>
@@ -432,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -475,6 +484,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -492,15 +516,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,49 +572,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,23 +585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,139 +692,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,38 +864,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -921,7 +930,9 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -933,9 +944,25 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </bottom>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -959,14 +986,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -980,32 +1007,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,8 +1018,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,21 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1073,22 +1063,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,144 +1092,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,11 +1249,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,9 +1308,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,26 +1329,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1351,31 +1380,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1699,8 +1728,8 @@
   <sheetPr/>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1737,15 +1766,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1766,18 +1795,18 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1789,73 +1818,73 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1871,711 +1900,719 @@
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="F15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="37"/>
+      <c r="J17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="48"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="38"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="38"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="38"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="F21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="24"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="38"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="38"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="38"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="13"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="38"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="38"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="38"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="F27" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="31"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="38"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="38"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="26"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="38"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="38"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="38"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="29" t="s">
-        <v>88</v>
+      <c r="E33" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="38"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="49"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="38"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="49"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2585,13 +2622,13 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="38"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="49"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="17"/>
@@ -2603,13 +2640,13 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="38"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="17"/>
@@ -2621,13 +2658,13 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="38"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="17"/>
@@ -2639,16 +2676,16 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="39"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="47">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2686,6 +2723,13 @@
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.8-2018.10.14.xlsx
+++ b/2018.10.8-2018.10.14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>时间段</t>
   </si>
@@ -180,6 +180,12 @@
     <t>起床洗漱</t>
   </si>
   <si>
+    <t>在家休息</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
     <t>07：30-08：00</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t>10：00-10：30</t>
   </si>
   <si>
+    <t>起床洗漱 来实验室吃饭</t>
+  </si>
+  <si>
     <t>10：30-11：00</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>午饭</t>
   </si>
   <si>
+    <t>玩游戏</t>
+  </si>
+  <si>
     <t>中午</t>
   </si>
   <si>
@@ -288,6 +300,9 @@
     <t>年级大会</t>
   </si>
   <si>
+    <t>看项目代码 主要是先看了DiskStorageManager的实现，然后根据《Hadoop权威指南》来练习Hdfs的文件读写操作</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -306,7 +321,9 @@
     <t>15：00-15：30</t>
   </si>
   <si>
-    <t>每周有意义的事总结：</t>
+    <t>每周总结：
+1、这周主要是对于HDFS的一些细节，比如文件的读写操作相关的api进行了详细的学习，并编写了部分的案例进行测试，为后面进行hdfs的索引读写操作做铺垫
+2、遇到的问题就是主要还是不明确，因为对于hdfs的操作，使用FileSystem 以及后面的FsDataInputStream提供的api无法实现随机定位写入文件的位置，但是读取的时候是可以实现的，而且现在测试的api也是可以流的形式读取文件内容</t>
   </si>
   <si>
     <t>15：30-16：00</t>
@@ -390,6 +407,9 @@
     <t>比赛的事情</t>
   </si>
   <si>
+    <t>编写一对于hdfs的一系列文件操作，包括文件判断是否存在，文件的读写操作，并建立github上传</t>
+  </si>
+  <si>
     <t>21：00-21：30</t>
   </si>
   <si>
@@ -412,9 +432,6 @@
   </si>
   <si>
     <t>22：30-23：00</t>
-  </si>
-  <si>
-    <t>玩游戏</t>
   </si>
   <si>
     <t>洗漱</t>
@@ -441,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -477,20 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -516,6 +519,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,33 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,22 +565,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,8 +608,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,7 +664,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,37 +697,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,145 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,21 +1087,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1103,157 +1111,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,7 +1331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,25 +1340,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,35 +1385,65 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1728,8 +1766,8 @@
   <sheetPr/>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1766,15 +1804,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1795,824 +1833,848 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="H2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+        <v>37</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
+        <v>51</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="48"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="49"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="49"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="49"/>
+      <c r="G20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="13"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="49"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="49"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="49"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="54"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="49"/>
+      <c r="F27" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="49"/>
+        <v>78</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="54"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="49"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="49"/>
+        <v>95</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="49"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="48"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="40" t="s">
-        <v>91</v>
+      <c r="E33" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="49"/>
+        <v>97</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="54"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="49"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="54"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2622,13 +2684,13 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="49"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="54"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="17"/>
@@ -2640,13 +2702,13 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="49"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="17"/>
@@ -2658,13 +2720,13 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="49"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="54"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="17"/>
@@ -2676,16 +2738,16 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="55">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2730,6 +2792,14 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G23:G30"/>
     <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H2:H34"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I28:I31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>
